--- a/dal, subji, kadhi/Sambhar/Jeera Rasam from Anand Lila Mataji.xlsx
+++ b/dal, subji, kadhi/Sambhar/Jeera Rasam from Anand Lila Mataji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\dal, subji, kadhi\Sambhar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8A78E3-956E-47CA-BBE0-2A650D56417E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25D24C-6C67-47B3-B47F-7550C5D52C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Item name</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>http://recipe.iskcondesiretree.com/01_-_Soups/Jeera_Rasam.pdf</t>
+  </si>
+  <si>
+    <t>also in same folder</t>
+  </si>
+  <si>
+    <t>Amit 4.5</t>
+  </si>
+  <si>
+    <t>Nandini Guarangi 3</t>
+  </si>
+  <si>
+    <t>imli is a concern for now.</t>
   </si>
 </sst>
 </file>
@@ -567,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F25"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +596,7 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,20 +622,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="11">
-        <f t="shared" ref="B3:B24" si="0">(E3/F3)*D3</f>
+        <f t="shared" ref="B3:B16" si="0">(E3/F3)*D3</f>
         <v>0.375</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -639,7 +654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -663,7 +678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -684,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -707,8 +722,11 @@
       <c r="H6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -728,11 +746,11 @@
       <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -752,8 +770,17 @@
       <c r="F8" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -773,11 +800,8 @@
       <c r="F9" s="10">
         <v>4</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -797,8 +821,11 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -819,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -840,7 +867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -861,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -882,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -903,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
